--- a/test_case_data/case.xlsx
+++ b/test_case_data/case.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangfan/www/auto_test/test_01/test_case_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangfan/www/test_auto/test_case_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{79FE51C4-7F64-B44D-B97D-30F9DDA42F77}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CD7B425B-AD6B-8A4F-B3E6-CC782A2E60B6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="3840" windowWidth="28760" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="2540" windowWidth="31660" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>用例ID</t>
   </si>
@@ -87,7 +87,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>status=0</t>
+    <t>并发</t>
+    <rPh sb="0" eb="2">
+      <t>bing f</t>
+    </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -514,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -530,7 +533,7 @@
     <col min="7" max="7" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,8 +555,11 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -573,10 +579,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
